--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>木桩</t>
+  </si>
+  <si>
+    <t>野猪</t>
   </si>
 </sst>
 </file>
@@ -1077,17 +1080,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="4" width="10" style="3"/>
     <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
@@ -1182,10 +1185,24 @@
         <v>4</v>
       </c>
       <c r="E5" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -1087,7 +1087,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1201,7 +1201,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -1087,7 +1087,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1198,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -1087,7 +1087,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1201,7 +1201,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>野猪</t>
+  </si>
+  <si>
+    <t>哥布林吹箭手</t>
   </si>
 </sst>
 </file>
@@ -1080,17 +1083,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="4" width="10" style="3"/>
     <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
@@ -1138,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -1187,10 +1190,12 @@
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" customHeight="1" spans="2:5">
+    <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -1202,6 +1207,26 @@
       </c>
       <c r="E6" s="3">
         <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:6">
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>哥布林吹箭手</t>
+  </si>
+  <si>
+    <t>哥布林长矛手</t>
+  </si>
+  <si>
+    <t>哥布林魔王</t>
   </si>
 </sst>
 </file>
@@ -1083,17 +1089,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="4" width="10" style="3"/>
     <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
@@ -1229,6 +1235,40 @@
         <v>2001</v>
       </c>
     </row>
+    <row r="8" customHeight="1" spans="2:6">
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:6">
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/MiniTemplate/Datas/enemy.xlsx
+++ b/Luban/MiniTemplate/Datas/enemy.xlsx
@@ -1096,7 +1096,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
